--- a/SampleInventory.xlsx
+++ b/SampleInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs_projects\register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs_projects\SCBC_SnackShackServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02594EE3-F344-44DD-88A5-453635D0162B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD32E2-759B-4028-A75B-BD14CA1BA7A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{55BEEBE3-4AC0-4972-A6F9-8725157C82F2}"/>
+    <workbookView xWindow="528" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{55BEEBE3-4AC0-4972-A6F9-8725157C82F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Merchandise" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -118,6 +118,33 @@
   </si>
   <si>
     <t>White Shirt</t>
+  </si>
+  <si>
+    <t>Fritos</t>
+  </si>
+  <si>
+    <t>Grey Shirt</t>
+  </si>
+  <si>
+    <t>Black Shorts</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Fudge Bar</t>
+  </si>
+  <si>
+    <t>Michael's Shorts</t>
+  </si>
+  <si>
+    <t>Evan's Hoodie (WITH CONFIDENCE)</t>
+  </si>
+  <si>
+    <t>Larry's Hair</t>
+  </si>
+  <si>
+    <t>Zach's Croc</t>
   </si>
 </sst>
 </file>
@@ -496,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B237B8BA-060B-482C-829A-F030DEA8E613}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,6 +611,72 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -592,10 +685,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADEC4B1-B6ED-4A70-AFAF-3407F76F8C0D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF3A74-E135-4E08-BCC1-F8011DC7DAB7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,96 +831,74 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
+      <c r="C4" s="4">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.5</v>
+      <c r="C7" s="4">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -707,12 +906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF3A74-E135-4E08-BCC1-F8011DC7DAB7}">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567A091E-818E-4548-A7EE-1705008F7B69}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,90 +932,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567A091E-818E-4548-A7EE-1705008F7B69}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2">
@@ -879,6 +994,17 @@
       </c>
       <c r="C7" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/SampleInventory.xlsx
+++ b/SampleInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs_projects\SCBC_SnackShackServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD32E2-759B-4028-A75B-BD14CA1BA7A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF10F2-32CB-41BA-A102-2F074B94AF6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="528" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{55BEEBE3-4AC0-4972-A6F9-8725157C82F2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -145,14 +145,16 @@
   </si>
   <si>
     <t>Zach's Croc</t>
+  </si>
+  <si>
+    <t>Nathan's Eye Bags (Unwashed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -201,13 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -523,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B237B8BA-060B-482C-829A-F030DEA8E613}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +608,7 @@
       <c r="B7">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>12</v>
       </c>
     </row>
@@ -640,7 +641,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>200</v>
       </c>
     </row>
@@ -662,8 +663,8 @@
       <c r="B12">
         <v>300</v>
       </c>
-      <c r="C12" s="5">
-        <v>500</v>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,6 +676,17 @@
       </c>
       <c r="C13" s="3">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
